--- a/level-3/hackerrank/phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
+++ b/level-3/hackerrank/phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A4F68-0607-4E57-92BD-9315F42874B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79132643-44C5-4B24-8F53-4E80D9ED7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - dynamic-programming" sheetId="14" r:id="rId1"/>
+    <sheet name="dynamic-programming" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -639,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,10 +664,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,22 +682,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,15 +710,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1100,10 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1130,13 +1134,13 @@
       <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1144,11 +1148,11 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="22"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C135)</f>
         <v>#DIV/0!</v>
@@ -1177,7 +1181,7 @@
         <f>COUNTA(I4:I772)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="12">
         <f>COUNTA(J4:J772)</f>
         <v>138</v>
       </c>
@@ -1189,17 +1193,17 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1210,17 +1214,17 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="5">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1240,8 +1244,8 @@
         <f>SUM(C6:G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1261,8 +1265,8 @@
         <f>SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1282,8 +1286,8 @@
         <f t="shared" ref="H8:H69" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1303,8 +1307,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1324,8 +1328,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1345,8 +1349,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1357,17 +1361,17 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1387,8 +1391,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1408,8 +1412,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1429,8 +1433,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1450,8 +1454,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1471,8 +1475,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1483,17 +1487,17 @@
       <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5">
         <f t="shared" ref="H18:H30" si="2">SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1504,17 +1508,17 @@
       <c r="B19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="14">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1525,17 +1529,17 @@
       <c r="B20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="14">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1546,17 +1550,17 @@
       <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="14">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1567,17 +1571,17 @@
       <c r="B22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="14">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1588,17 +1592,17 @@
       <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="14">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1609,17 +1613,17 @@
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1630,17 +1634,17 @@
       <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1651,17 +1655,17 @@
       <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1672,17 +1676,17 @@
       <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1693,17 +1697,17 @@
       <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="14">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1714,17 +1718,17 @@
       <c r="B29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="14">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1735,17 +1739,17 @@
       <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="14">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1756,17 +1760,17 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="9" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1786,8 +1790,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1807,8 +1811,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="9" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1819,17 +1823,17 @@
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1840,17 +1844,17 @@
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="9" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1870,8 +1874,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="9" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1882,17 +1886,17 @@
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="9" t="s">
+      <c r="I37" s="3"/>
+      <c r="J37" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1912,8 +1916,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="9" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1924,17 +1928,17 @@
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="9" t="s">
+      <c r="I39" s="3"/>
+      <c r="J39" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1954,8 +1958,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="10" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1975,8 +1979,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="10" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1996,8 +2000,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="10" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2017,8 +2021,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2029,17 +2033,17 @@
       <c r="B44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="10" t="s">
+      <c r="I44" s="11"/>
+      <c r="J44" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2050,17 +2054,17 @@
       <c r="B45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="10" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2071,17 +2075,17 @@
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="10" t="s">
+      <c r="I46" s="11"/>
+      <c r="J46" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2092,17 +2096,17 @@
       <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="10" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2122,8 +2126,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="10" t="s">
+      <c r="I48" s="11"/>
+      <c r="J48" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2134,17 +2138,17 @@
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="10" t="s">
+      <c r="I49" s="11"/>
+      <c r="J49" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2164,8 +2168,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="10" t="s">
+      <c r="I50" s="11"/>
+      <c r="J50" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2185,8 +2189,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="10" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2206,8 +2210,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="10" t="s">
+      <c r="I52" s="11"/>
+      <c r="J52" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2227,8 +2231,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="10" t="s">
+      <c r="I53" s="11"/>
+      <c r="J53" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2239,17 +2243,17 @@
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="10" t="s">
+      <c r="I54" s="11"/>
+      <c r="J54" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2260,17 +2264,17 @@
       <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="10" t="s">
+      <c r="I55" s="11"/>
+      <c r="J55" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2281,17 +2285,17 @@
       <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="10" t="s">
+      <c r="I56" s="11"/>
+      <c r="J56" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2302,17 +2306,17 @@
       <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="10" t="s">
+      <c r="I57" s="11"/>
+      <c r="J57" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2323,17 +2327,17 @@
       <c r="B58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="10" t="s">
+      <c r="I58" s="11"/>
+      <c r="J58" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2353,8 +2357,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="10" t="s">
+      <c r="I59" s="11"/>
+      <c r="J59" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2365,17 +2369,17 @@
       <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="10" t="s">
+      <c r="I60" s="11"/>
+      <c r="J60" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2395,8 +2399,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="10" t="s">
+      <c r="I61" s="11"/>
+      <c r="J61" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2416,8 +2420,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="10" t="s">
+      <c r="I62" s="11"/>
+      <c r="J62" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2437,8 +2441,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="10" t="s">
+      <c r="I63" s="11"/>
+      <c r="J63" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2458,8 +2462,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="10" t="s">
+      <c r="I64" s="11"/>
+      <c r="J64" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2470,17 +2474,17 @@
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
       <c r="H65" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="10" t="s">
+      <c r="I65" s="11"/>
+      <c r="J65" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2491,17 +2495,17 @@
       <c r="B66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="10" t="s">
+      <c r="I66" s="11"/>
+      <c r="J66" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2521,8 +2525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="10" t="s">
+      <c r="I67" s="11"/>
+      <c r="J67" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2533,17 +2537,17 @@
       <c r="B68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="10" t="s">
+      <c r="I68" s="11"/>
+      <c r="J68" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2554,17 +2558,17 @@
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="10" t="s">
+      <c r="I69" s="11"/>
+      <c r="J69" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2575,17 +2579,17 @@
       <c r="B70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="14">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="5">
         <f t="shared" ref="H70:H101" si="3">SUM(C70:G70)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="13"/>
-      <c r="J70" s="10" t="s">
+      <c r="I70" s="11"/>
+      <c r="J70" s="9" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2596,17 +2600,17 @@
       <c r="B71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="14">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="10" t="s">
+      <c r="I71" s="11"/>
+      <c r="J71" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2617,17 +2621,17 @@
       <c r="B72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="14">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="10" t="s">
+      <c r="I72" s="11"/>
+      <c r="J72" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2638,17 +2642,17 @@
       <c r="B73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="14">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="10" t="s">
+      <c r="I73" s="11"/>
+      <c r="J73" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2659,17 +2663,17 @@
       <c r="B74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="14">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="10" t="s">
+      <c r="I74" s="11"/>
+      <c r="J74" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2680,17 +2684,17 @@
       <c r="B75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="14">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="10" t="s">
+      <c r="I75" s="11"/>
+      <c r="J75" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2701,17 +2705,17 @@
       <c r="B76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="14">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="10" t="s">
+      <c r="I76" s="11"/>
+      <c r="J76" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2722,17 +2726,17 @@
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="14">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="10" t="s">
+      <c r="I77" s="11"/>
+      <c r="J77" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2743,17 +2747,17 @@
       <c r="B78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="14">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="10" t="s">
+      <c r="I78" s="11"/>
+      <c r="J78" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2764,17 +2768,17 @@
       <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="14">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="10" t="s">
+      <c r="I79" s="11"/>
+      <c r="J79" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2785,17 +2789,17 @@
       <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="14">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I80" s="13"/>
-      <c r="J80" s="10" t="s">
+      <c r="I80" s="11"/>
+      <c r="J80" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2806,17 +2810,17 @@
       <c r="B81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="14">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="10" t="s">
+      <c r="I81" s="11"/>
+      <c r="J81" s="9" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2827,17 +2831,17 @@
       <c r="B82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="14">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="10" t="s">
+      <c r="I82" s="11"/>
+      <c r="J82" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2848,17 +2852,17 @@
       <c r="B83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="14">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="10" t="s">
+      <c r="I83" s="11"/>
+      <c r="J83" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2869,17 +2873,17 @@
       <c r="B84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="14">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="10" t="s">
+      <c r="I84" s="11"/>
+      <c r="J84" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2890,17 +2894,17 @@
       <c r="B85" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="14">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="10" t="s">
+      <c r="I85" s="11"/>
+      <c r="J85" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2911,17 +2915,17 @@
       <c r="B86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="14">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="10" t="s">
+      <c r="I86" s="11"/>
+      <c r="J86" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2932,17 +2936,17 @@
       <c r="B87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="14">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="10" t="s">
+      <c r="I87" s="11"/>
+      <c r="J87" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2953,17 +2957,17 @@
       <c r="B88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="14">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="10" t="s">
+      <c r="I88" s="11"/>
+      <c r="J88" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2974,17 +2978,17 @@
       <c r="B89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="14">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="10" t="s">
+      <c r="I89" s="11"/>
+      <c r="J89" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2995,17 +2999,17 @@
       <c r="B90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="14">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="10" t="s">
+      <c r="I90" s="11"/>
+      <c r="J90" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3016,17 +3020,17 @@
       <c r="B91" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="14">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="10" t="s">
+      <c r="I91" s="11"/>
+      <c r="J91" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3037,17 +3041,17 @@
       <c r="B92" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="14">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="10" t="s">
+      <c r="I92" s="11"/>
+      <c r="J92" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3058,17 +3062,17 @@
       <c r="B93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="14">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="10" t="s">
+      <c r="I93" s="11"/>
+      <c r="J93" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3079,17 +3083,17 @@
       <c r="B94" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="14">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="10" t="s">
+      <c r="I94" s="11"/>
+      <c r="J94" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3100,17 +3104,17 @@
       <c r="B95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="14">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="10" t="s">
+      <c r="I95" s="11"/>
+      <c r="J95" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3121,17 +3125,17 @@
       <c r="B96" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="14">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="10" t="s">
+      <c r="I96" s="11"/>
+      <c r="J96" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3142,17 +3146,17 @@
       <c r="B97" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="14">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="10" t="s">
+      <c r="I97" s="11"/>
+      <c r="J97" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3163,17 +3167,17 @@
       <c r="B98" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="14">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="10" t="s">
+      <c r="I98" s="11"/>
+      <c r="J98" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3184,17 +3188,17 @@
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="14">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I99" s="13"/>
-      <c r="J99" s="10" t="s">
+      <c r="I99" s="11"/>
+      <c r="J99" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3205,17 +3209,17 @@
       <c r="B100" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="14">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I100" s="13"/>
-      <c r="J100" s="10" t="s">
+      <c r="I100" s="11"/>
+      <c r="J100" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3226,17 +3230,17 @@
       <c r="B101" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="14">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="10" t="s">
+      <c r="I101" s="11"/>
+      <c r="J101" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3247,17 +3251,17 @@
       <c r="B102" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="14">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="5">
         <f t="shared" ref="H102:H130" si="4">SUM(C102:G102)</f>
         <v>0</v>
       </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="10" t="s">
+      <c r="I102" s="11"/>
+      <c r="J102" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3268,17 +3272,17 @@
       <c r="B103" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="14">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="10" t="s">
+      <c r="I103" s="11"/>
+      <c r="J103" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3289,17 +3293,17 @@
       <c r="B104" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="14">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I104" s="13"/>
-      <c r="J104" s="10" t="s">
+      <c r="I104" s="11"/>
+      <c r="J104" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3310,17 +3314,17 @@
       <c r="B105" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="14">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="10" t="s">
+      <c r="I105" s="11"/>
+      <c r="J105" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3331,17 +3335,17 @@
       <c r="B106" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="14">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="10" t="s">
+      <c r="I106" s="11"/>
+      <c r="J106" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3352,17 +3356,17 @@
       <c r="B107" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="14">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="10" t="s">
+      <c r="I107" s="11"/>
+      <c r="J107" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3373,17 +3377,17 @@
       <c r="B108" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="14">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="10" t="s">
+      <c r="I108" s="11"/>
+      <c r="J108" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3394,17 +3398,17 @@
       <c r="B109" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="14">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="10" t="s">
+      <c r="I109" s="11"/>
+      <c r="J109" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3415,17 +3419,17 @@
       <c r="B110" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="14">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I110" s="13"/>
-      <c r="J110" s="10" t="s">
+      <c r="I110" s="11"/>
+      <c r="J110" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3436,17 +3440,17 @@
       <c r="B111" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="14">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I111" s="13"/>
-      <c r="J111" s="10" t="s">
+      <c r="I111" s="11"/>
+      <c r="J111" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3457,17 +3461,17 @@
       <c r="B112" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="14">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I112" s="13"/>
-      <c r="J112" s="10" t="s">
+      <c r="I112" s="11"/>
+      <c r="J112" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3478,17 +3482,17 @@
       <c r="B113" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="14">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I113" s="13"/>
-      <c r="J113" s="10" t="s">
+      <c r="I113" s="11"/>
+      <c r="J113" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3499,17 +3503,17 @@
       <c r="B114" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="14">
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="10" t="s">
+      <c r="I114" s="11"/>
+      <c r="J114" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3520,17 +3524,17 @@
       <c r="B115" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="14">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I115" s="13"/>
-      <c r="J115" s="10" t="s">
+      <c r="I115" s="11"/>
+      <c r="J115" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3541,17 +3545,17 @@
       <c r="B116" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="14">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I116" s="13"/>
-      <c r="J116" s="10" t="s">
+      <c r="I116" s="11"/>
+      <c r="J116" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3562,17 +3566,17 @@
       <c r="B117" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="14">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I117" s="13"/>
-      <c r="J117" s="10" t="s">
+      <c r="I117" s="11"/>
+      <c r="J117" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3583,17 +3587,17 @@
       <c r="B118" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="14">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="10" t="s">
+      <c r="I118" s="11"/>
+      <c r="J118" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3604,17 +3608,17 @@
       <c r="B119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="14">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I119" s="13"/>
-      <c r="J119" s="10" t="s">
+      <c r="I119" s="11"/>
+      <c r="J119" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3625,17 +3629,17 @@
       <c r="B120" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="14">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="10" t="s">
+      <c r="I120" s="11"/>
+      <c r="J120" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3646,17 +3650,17 @@
       <c r="B121" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="14">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="10" t="s">
+      <c r="I121" s="11"/>
+      <c r="J121" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3667,17 +3671,17 @@
       <c r="B122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="14">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I122" s="13"/>
-      <c r="J122" s="10" t="s">
+      <c r="I122" s="11"/>
+      <c r="J122" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3688,17 +3692,17 @@
       <c r="B123" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="14">
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I123" s="13"/>
-      <c r="J123" s="10" t="s">
+      <c r="I123" s="11"/>
+      <c r="J123" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3709,17 +3713,17 @@
       <c r="B124" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="14">
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I124" s="13"/>
-      <c r="J124" s="10" t="s">
+      <c r="I124" s="11"/>
+      <c r="J124" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3730,17 +3734,17 @@
       <c r="B125" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="14">
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I125" s="13"/>
-      <c r="J125" s="10" t="s">
+      <c r="I125" s="11"/>
+      <c r="J125" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3751,17 +3755,17 @@
       <c r="B126" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="14">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I126" s="13"/>
-      <c r="J126" s="10" t="s">
+      <c r="I126" s="11"/>
+      <c r="J126" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3772,17 +3776,17 @@
       <c r="B127" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="14">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="10" t="s">
+      <c r="I127" s="11"/>
+      <c r="J127" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3793,17 +3797,17 @@
       <c r="B128" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="14">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I128" s="13"/>
-      <c r="J128" s="10" t="s">
+      <c r="I128" s="11"/>
+      <c r="J128" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3814,17 +3818,17 @@
       <c r="B129" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="14">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="10" t="s">
+      <c r="I129" s="11"/>
+      <c r="J129" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3835,17 +3839,17 @@
       <c r="B130" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="14">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="10" t="s">
+      <c r="I130" s="11"/>
+      <c r="J130" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3865,8 +3869,8 @@
         <f t="shared" ref="H131:H135" si="5">SUM(C131:G131)</f>
         <v>0</v>
       </c>
-      <c r="I131" s="13"/>
-      <c r="J131" s="10" t="s">
+      <c r="I131" s="11"/>
+      <c r="J131" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3877,17 +3881,17 @@
       <c r="B132" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I132" s="13"/>
-      <c r="J132" s="10" t="s">
+      <c r="I132" s="11"/>
+      <c r="J132" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3898,17 +3902,17 @@
       <c r="B133" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I133" s="13"/>
-      <c r="J133" s="10" t="s">
+      <c r="I133" s="11"/>
+      <c r="J133" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3919,17 +3923,17 @@
       <c r="B134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I134" s="13"/>
-      <c r="J134" s="10" t="s">
+      <c r="I134" s="11"/>
+      <c r="J134" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3940,17 +3944,17 @@
       <c r="B135" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I135" s="13"/>
-      <c r="J135" s="10" t="s">
+      <c r="I135" s="11"/>
+      <c r="J135" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3961,17 +3965,17 @@
       <c r="B136" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="14">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="5">
         <f t="shared" ref="H136:H141" si="6">SUM(C136:G136)</f>
         <v>0</v>
       </c>
-      <c r="I136" s="13"/>
-      <c r="J136" s="10" t="s">
+      <c r="I136" s="11"/>
+      <c r="J136" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3982,17 +3986,17 @@
       <c r="B137" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="14">
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I137" s="13"/>
-      <c r="J137" s="10" t="s">
+      <c r="I137" s="11"/>
+      <c r="J137" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4003,17 +4007,17 @@
       <c r="B138" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="14">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I138" s="13"/>
-      <c r="J138" s="10" t="s">
+      <c r="I138" s="11"/>
+      <c r="J138" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4024,17 +4028,17 @@
       <c r="B139" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="14">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I139" s="13"/>
-      <c r="J139" s="10" t="s">
+      <c r="I139" s="11"/>
+      <c r="J139" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4045,17 +4049,17 @@
       <c r="B140" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="14">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I140" s="13"/>
-      <c r="J140" s="10" t="s">
+      <c r="I140" s="11"/>
+      <c r="J140" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4066,17 +4070,17 @@
       <c r="B141" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="14">
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I141" s="13"/>
-      <c r="J141" s="10" t="s">
+      <c r="I141" s="11"/>
+      <c r="J141" s="9" t="s">
         <v>73</v>
       </c>
     </row>

--- a/level-3/hackerrank/phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
+++ b/level-3/hackerrank/phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79132643-44C5-4B24-8F53-4E80D9ED7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F15D41-817F-46DC-9D18-520497CB2103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dynamic-programming" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank dynamic-programming" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4097,31 +4097,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 J7:J9">
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9">
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
